--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/15/seed1/result_data_RandomForest.xlsx
@@ -502,10 +502,10 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.11460000000001</v>
+        <v>-14.15280000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.519300000000003</v>
+        <v>-8.572400000000002</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.516299999999999</v>
+        <v>-8.5322</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.69089999999999</v>
+        <v>-12.0301</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.8729</v>
+        <v>-12.1055</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.206299999999999</v>
+        <v>-8.0496</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -706,10 +706,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.6412</v>
+        <v>-11.7162</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.494300000000004</v>
+        <v>-8.436900000000009</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.6084</v>
+        <v>-14.7293</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.902199999999998</v>
+        <v>-7.8094</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
